--- a/RQ7/Android_question_all_answer_points_Arbitration_Result.xlsx
+++ b/RQ7/Android_question_all_answer_points_Arbitration_Result.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ml\api_comparison_project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\FSE2021APIComp.github.io\RQ7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEAB065-FEAB-4126-8481-24F2DF867F8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7E6318-761D-4AE3-B961-71045883E48B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5B4C55DD-98AE-441A-8112-E4617C4DC095}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="coverage" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
   <si>
     <t>title</t>
   </si>
@@ -44,14 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sentence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>where in API doc?first sentence of class/first paragraph of class/full text of class/class hierarchical structure/first sentence of method/full text of method/method declaration</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Service vs IntentService</t>
   </si>
   <si>
@@ -66,17 +58,10 @@
     <t>https://stackoverflow.com/questions/15524280/service-vs-intentservice/15772151?r=SearchResults#15772156</t>
   </si>
   <si>
-    <t>first paragraph of class</t>
-  </si>
-  <si>
     <t>IntentService is triggered using an Intent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>full text of class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>What's the difference between commit() and apply() in Shared Preference</t>
   </si>
   <si>
@@ -95,17 +80,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>full text of method</t>
-  </si>
-  <si>
     <t>https://stackoverflow.com/questions/5960679/whats-the-difference-between-commit-and-apply-in-shared-preference?r=SearchResults</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>android.content.SharedPreferences.Editor.apply()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>What is the difference between FragmentPagerAdapter and FragmentStatePagerAdapter?</t>
   </si>
   <si>
@@ -117,17 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>android.support.v4.app.FragmentStatePagerAdapter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full text of class</t>
-  </si>
-  <si>
-    <t>android.support.v4.app.FragmentPagerAdapter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Difference between Activity and FragmentActivity</t>
   </si>
   <si>
@@ -142,13 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>android.support.v4.app.FragmentActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class hierarchical structure</t>
-  </si>
-  <si>
     <t>Android Recyclerview vs ListView with Viewholder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>android.view.View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Views is also used for all user interaction.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>android.widget.GridView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">GridView displays items in two-dimensional scrolling grid. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,18 +156,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first paragraph of class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">GridLayout is a layout </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>android.widget.GridLayout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>What is the difference between Action Bar and newly introduced Toolbar?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,10 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>android.widget.Toolbar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The Toolbar is a view</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,13 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>android.app.ActionBar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first sentence of class</t>
-  </si>
-  <si>
     <t>Difference between android.app.Fragment and android.support.v4.app.Fragment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,14 +193,6 @@
   </si>
   <si>
     <t>android.support.v4.app.Fragment/android.app.Fragment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android.support.v4.app.Fragment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android.app.Fragment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -318,14 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>android.widget.ListView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android.app.Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>android.app.Fragment</t>
     </r>
@@ -343,14 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>android.app.IntentService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first sentence of class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The FragmentActivity can deal with Fragments</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,6 +375,10 @@
   </si>
   <si>
     <t>s2: found in APIComp (0 for false/1 for true)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,28 +812,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C794EE-91FF-4AE3-81FE-12139438A5E6}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="75.625" customWidth="1"/>
-    <col min="6" max="6" width="84.5" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="73.625" customWidth="1"/>
+    <col min="6" max="6" width="49.875" customWidth="1"/>
     <col min="7" max="7" width="79.125" customWidth="1"/>
-    <col min="8" max="8" width="35.5" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
     <col min="9" max="9" width="37" customWidth="1"/>
     <col min="10" max="10" width="35.5" customWidth="1"/>
     <col min="11" max="11" width="27.25" customWidth="1"/>
     <col min="12" max="12" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -938,42 +851,40 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>15524285</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1328</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -984,35 +895,29 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>15524285</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>1328</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3">
         <v>1</v>
       </c>
@@ -1022,34 +927,28 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5960679</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>414</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1060,34 +959,28 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5960680</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>415</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1098,34 +991,28 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5960681</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>416</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1136,34 +1023,28 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>18747976</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>359</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1174,34 +1055,28 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>18747976</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1212,34 +1087,28 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>18747977</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>360</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1250,34 +1119,28 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10477997</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>310</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1288,34 +1151,28 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>28525112</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>282</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1326,34 +1183,28 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1243433</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>207</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1364,34 +1215,28 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11307218</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1402,34 +1247,28 @@
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11307218</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1440,34 +1279,28 @@
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11307218</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1478,34 +1311,28 @@
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11307218</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>204</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1516,34 +1343,28 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>27665018</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D17">
         <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1554,34 +1375,28 @@
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>27665018</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1592,34 +1407,28 @@
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>27665018</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>186</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1630,34 +1439,28 @@
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="K19" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>15109017</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>173</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1668,34 +1471,28 @@
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>15109017</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>173</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1706,34 +1503,28 @@
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10609268</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <v>156</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1744,34 +1535,28 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10609268</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>156</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1782,34 +1567,28 @@
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="K23" t="s">
-        <v>68</v>
-      </c>
-      <c r="L23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10609268</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D24">
         <v>156</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1820,34 +1599,28 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10609268</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D25">
         <v>156</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1857,12 +1630,6 @@
       </c>
       <c r="J25">
         <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
